--- a/imageCreationExcel/back/106/106_11.xlsx
+++ b/imageCreationExcel/back/106/106_11.xlsx
@@ -486,16 +486,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.001241725549504</v>
+        <v>1.076904420788259</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.760543701693314</v>
+        <v>0.8003707256008417</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14.68546557261573</v>
+        <v>27.141835260326</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_7_gamma1.001_sharpness0.761_equalization14.685.jpg</t>
+          <t>1_E_contrast1.077_sharpness0.8_equalization27.142.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.393077483795838</v>
+        <v>1.099630791437149</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.072901128979189</v>
+        <v>0.1625488379369819</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.014601749459545</v>
+        <v>15.77230585433861</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_B_brightness2.393_contrast1.073_gamma1.015.jpg</t>
+          <t>2_9_contrast1.1_sharpness0.163_equalization15.772.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,30 +579,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.090432032836992</v>
+        <v>14.33020793162596</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.6178998202708325</v>
+        <v>1.004273695137522</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.1245746540450224</v>
+        <v>1.01585277576838</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_I_brightness2.09_gamma0.618_sharpness0.125.jpg</t>
+          <t>3_0_brightness14.33_contrast1.004_gamma1.016.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17.76024580608074</v>
+        <v>0.9540775243184766</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.148941050491718</v>
+        <v>0.5893400877865762</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.2166506125287366</v>
+        <v>19.4021770788654</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_C_brightness17.76_contrast1.149_sharpness0.217.jpg</t>
+          <t>4_8_gamma0.954_sharpness0.589_equalization19.402.jpg</t>
         </is>
       </c>
     </row>
@@ -654,16 +654,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.069449110754501</v>
+        <v>14.84616402531489</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.5901816133661307</v>
+        <v>1.038462183312308</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.6785087232193331</v>
+        <v>0.7394274455849099</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_B_contrast1.069_gamma0.59_sharpness0.679.jpg</t>
+          <t>5_2_brightness14.846_gamma1.038_sharpness0.739.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26.26910515352306</v>
+        <v>0.694558783401823</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.195046429763588</v>
+        <v>0.2458641710285945</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.7328059314983536</v>
+        <v>25.64250888447831</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_1_brightness26.269_contrast1.195_sharpness0.733.jpg</t>
+          <t>6_T_gamma0.695_sharpness0.246_equalization25.643.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9500261888184839</v>
+        <v>9.600413654477419</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.5259354008332984</v>
+        <v>0.9921769134943912</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.0545762082296791</v>
+        <v>0.7815961062873077</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_2_contrast0.95_gamma0.526_sharpness0.055.jpg</t>
+          <t>7_B_brightness9.6_contrast0.992_gamma0.782.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8992677828461145</v>
+        <v>3.073713801854664</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.2516585690871216</v>
+        <v>0.7527113799334685</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>13.14751524292581</v>
+        <v>0.9311774044587815</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_E_contrast0.899_sharpness0.252_equalization13.148.jpg</t>
+          <t>8_B_brightness3.074_gamma0.753_sharpness0.931.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>27.11020714609676</v>
+        <v>2.783260475562855</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.5437686883507246</v>
+        <v>0.5869024052655556</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.2643096865062335</v>
+        <v>0.6648769139738857</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_S_brightness27.11_gamma0.544_sharpness0.264.jpg</t>
+          <t>9_9_brightness2.783_gamma0.587_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.568313426496194</v>
+        <v>29.35509940732091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.6814017885739974</v>
+        <v>0.8679071093215013</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>13.40279980130399</v>
+        <v>0.1682832470280544</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_C_gamma0.568_sharpness0.681_equalization13.403.jpg</t>
+          <t>10_1_brightness29.355_gamma0.868_sharpness0.168.jpg</t>
         </is>
       </c>
     </row>
@@ -906,24 +906,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.053210149464312</v>
+        <v>18.35967874752728</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.7041520635025982</v>
+        <v>1.147595559779957</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.4701819593337796</v>
+        <v>0.4114991031185868</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_C_contrast1.053_gamma0.704_sharpness0.47.jpg</t>
+          <t>11_S_brightness18.36_contrast1.148_sharpness0.411.jpg</t>
         </is>
       </c>
     </row>
@@ -953,34 +953,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9966438910416622</v>
+        <v>22.63894604414538</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.70345177506664</v>
+        <v>0.7969742899324919</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7.794067090439233</v>
+        <v>0.536169584263495</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_9_contrast0.997_sharpness0.703_equalization7.794.jpg</t>
+          <t>12_9_brightness22.639_gamma0.797_sharpness0.536.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.322722440252407</v>
+        <v>0.9320687826154327</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.189073431186975</v>
+        <v>0.6962661603026357</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.008410260644639</v>
+        <v>0.966361982380247</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_P_brightness2.323_contrast1.189_gamma1.008.jpg</t>
+          <t>13_I_contrast0.932_gamma0.696_sharpness0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.986556200523035</v>
+        <v>9.82483160886224</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5221553100707975</v>
+        <v>0.6116463050175026</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.03525878975835381</v>
+        <v>0.2130986111862044</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_2_brightness6.987_gamma0.522_sharpness0.035.jpg</t>
+          <t>14_C_brightness9.825_gamma0.612_sharpness0.213.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,30 +1083,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>22.46185714549882</v>
+        <v>15.76232634484877</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5533135340252067</v>
+        <v>0.8238317690890842</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.643270164826845</v>
+        <v>1.097875865595004</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_C_brightness22.462_gamma0.553_sharpness0.643.jpg</t>
+          <t>15_I_brightness15.762_contrast0.824_gamma1.098.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.615259263697869</v>
+        <v>18.90896967793272</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.136507646008738</v>
+        <v>1.07141247765635</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.9362957159371221</v>
+        <v>0.844689646509782</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_1_brightness4.615_contrast1.137_gamma0.936.jpg</t>
+          <t>16_8_brightness18.909_contrast1.071_gamma0.845.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.878806184231706</v>
+        <v>0.7950467941480667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.6735529678491461</v>
+        <v>0.8347099340595336</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.4588224556930415</v>
+        <v>14.87981593372665</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_2_contrast0.879_gamma0.674_sharpness0.459.jpg</t>
+          <t>17_C_gamma0.795_sharpness0.835_equalization14.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>20.78469473279166</v>
+        <v>3.424291553413249</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9729443895025837</v>
+        <v>0.8870679949031195</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.9009441273958819</v>
+        <v>0.6609697273116906</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_C_brightness20.785_contrast0.973_sharpness0.901.jpg</t>
+          <t>18_E_brightness3.424_contrast0.887_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.7938733278903951</v>
+        <v>0.7688809970346411</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9332926868058797</v>
+        <v>0.872153026060418</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>16.95618476082385</v>
+        <v>20.36116433850244</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_3_gamma0.794_sharpness0.933_equalization16.956.jpg</t>
+          <t>19_P_gamma0.769_sharpness0.872_equalization20.361.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>16.52000350097257</v>
+        <v>0.7179040370865665</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8569744882452484</v>
+        <v>0.48967225177651</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.4349309922754755</v>
+        <v>30.82445194069976</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_7_brightness16.52_contrast0.857_sharpness0.435.jpg</t>
+          <t>20_8_gamma0.718_sharpness0.49_equalization30.824.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>24.20029691385187</v>
+        <v>1.050083685240748</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.054104717926801</v>
+        <v>0.339232794449652</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.8089479344930356</v>
+        <v>23.48998595327366</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_7_brightness24.2_gamma1.054_sharpness0.809.jpg</t>
+          <t>21_T_contrast1.05_sharpness0.339_equalization23.49.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.145008616305022</v>
+        <v>8.799879097077111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.5286156241111246</v>
+        <v>1.063896763556058</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>15.00402672300821</v>
+        <v>0.8196407081467803</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_7_contrast1.145_gamma0.529_equalization15.004.jpg</t>
+          <t>22_9_brightness8.8_contrast1.064_gamma0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,15 +1419,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.811369613860193</v>
+        <v>1.173469580864988</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.7376941593517814</v>
+        <v>0.2465522781439582</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>24.64400923517683</v>
+        <v>24.68540372721932</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_7_contrast0.811_gamma0.738_equalization24.644.jpg</t>
+          <t>23_C_contrast1.173_sharpness0.247_equalization24.685.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17.47712522078443</v>
+        <v>0.9831897186047345</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9168920089439038</v>
+        <v>0.8336301854814829</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.085305733171436</v>
+        <v>14.82796251628112</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_9_brightness17.477_contrast0.917_gamma1.085.jpg</t>
+          <t>24_C_contrast0.983_gamma0.834_equalization14.828.jpg</t>
         </is>
       </c>
     </row>
@@ -1499,34 +1499,34 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.6970742860917261</v>
+        <v>3.933965199261196</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.1562608573232791</v>
+        <v>0.9858682214253558</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>12.92152044952275</v>
+        <v>0.9949098690287623</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_3_gamma0.697_sharpness0.156_equalization12.922.jpg</t>
+          <t>25_3_brightness3.934_gamma0.986_sharpness0.995.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15.35127490467698</v>
+        <v>15.14828915423982</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8754711030241934</v>
+        <v>1.142751878424045</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.006080784485545201</v>
+        <v>0.0106576701728699</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_I_brightness15.351_contrast0.875_sharpness0.006.jpg</t>
+          <t>26_8_brightness15.148_contrast1.143_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,30 +1587,30 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8.248768079319678</v>
+        <v>11.66561696614398</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.716999076343301</v>
+        <v>0.8402871233117034</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.9801156550033077</v>
+        <v>1.074474135937744</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_9_brightness8.249_gamma0.717_sharpness0.98.jpg</t>
+          <t>27_1_brightness11.666_contrast0.84_gamma1.074.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11.99523641007527</v>
+        <v>19.36082077191899</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,22 +1637,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.092753958640079</v>
+        <v>0.9546828900206834</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.2292253901391961</v>
+        <v>0.8492992886993604</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_1_brightness11.995_contrast1.093_sharpness0.229.jpg</t>
+          <t>28_B_brightness19.361_contrast0.955_gamma0.849.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>16.56042059536443</v>
+        <v>1.049577227831585</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8365388470283814</v>
+        <v>0.6283214030964984</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.4288570717872343</v>
+        <v>14.7206542206624</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_C_brightness16.56_contrast0.837_sharpness0.429.jpg</t>
+          <t>29_1_gamma1.05_sharpness0.628_equalization14.721.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8051555512634836</v>
+        <v>1.003794204313371</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,22 +1721,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5919104963703204</v>
+        <v>1.031091247996291</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>19.3522195943623</v>
+        <v>0.09144134149074086</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_T_contrast0.805_gamma0.592_equalization19.352.jpg</t>
+          <t>30_7_contrast1.004_gamma1.031_sharpness0.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9745665664463958</v>
+        <v>0.8066352315911782</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9310402460046858</v>
+        <v>0.4712461899568981</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>21.17089811134212</v>
+        <v>6.177457766552768</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_P_contrast0.975_sharpness0.931_equalization21.171.jpg</t>
+          <t>31_3_contrast0.807_sharpness0.471_equalization6.177.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,15 +1797,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>19.17512135393605</v>
+        <v>26.94891691083034</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9272839319680549</v>
+        <v>0.8278323085664128</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.7297879869551812</v>
+        <v>0.766283134741476</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_I_brightness19.175_gamma0.927_sharpness0.73.jpg</t>
+          <t>32_1_brightness26.949_contrast0.828_sharpness0.766.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9665851276360419</v>
+        <v>28.15113403859261</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.3484355400932894</v>
+        <v>0.750422583379044</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>11.44198831680577</v>
+        <v>0.8211991620928669</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_B_gamma0.967_sharpness0.348_equalization11.442.jpg</t>
+          <t>33_0_brightness28.151_gamma0.75_sharpness0.821.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,30 +1881,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.013315804640134</v>
+        <v>1.019626384517316</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.1599198508356141</v>
+        <v>1.099181187486154</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5.644365564983771</v>
+        <v>0.9089648170828414</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_9_contrast1.013_sharpness0.16_equalization5.644.jpg</t>
+          <t>34_7_contrast1.02_gamma1.099_sharpness0.909.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>29.43372074440087</v>
+        <v>1.077988565547923</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9398761177595651</v>
+        <v>0.410921968279432</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.9626880722676209</v>
+        <v>24.53191548690758</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_8_brightness29.434_contrast0.94_gamma0.963.jpg</t>
+          <t>35_C_gamma1.078_sharpness0.411_equalization24.532.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,30 +1965,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.174176198513432</v>
+        <v>1.041322376035484</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.1729320210790569</v>
+        <v>1.087320712965702</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>9.834021446544639</v>
+        <v>0.1800558864076415</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_P_contrast1.174_sharpness0.173_equalization9.834.jpg</t>
+          <t>36_C_contrast1.041_gamma1.087_sharpness0.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9564383335109208</v>
+        <v>23.5782552493007</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.067953314968762</v>
+        <v>1.054245706253254</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.5237778972630777</v>
+        <v>0.6396977579850422</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_3_contrast0.956_gamma1.068_sharpness0.524.jpg</t>
+          <t>37_I_brightness23.578_contrast1.054_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.063994525928311</v>
+        <v>0.5426528348733026</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8650583048173317</v>
+        <v>0.904928519392634</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>28.03455861075815</v>
+        <v>15.3726271389505</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_7_gamma1.064_sharpness0.865_equalization28.035.jpg</t>
+          <t>38_2_gamma0.543_sharpness0.905_equalization15.373.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>13.6428047701695</v>
+        <v>1.187067672607325</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.109402350077349</v>
+        <v>0.4514054479749051</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.3418600622471054</v>
+        <v>23.26142589033121</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_P_brightness13.643_contrast1.109_sharpness0.342.jpg</t>
+          <t>39_S_contrast1.187_sharpness0.451_equalization23.261.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,24 +2124,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>26.98976422915666</v>
+        <v>0.9876329927078109</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.105946310095117</v>
+        <v>0.9533473575130441</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.8578067422571756</v>
+        <v>0.2618490265547632</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_B_brightness26.99_contrast1.106_sharpness0.858.jpg</t>
+          <t>40_9_contrast0.988_gamma0.953_sharpness0.262.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,15 +2175,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9985601169546656</v>
+        <v>1.008044400944674</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.6773979228613172</v>
+        <v>0.6849095754678823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>13.04717540717889</v>
+        <v>18.89824031526566</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_T_contrast0.999_sharpness0.677_equalization13.047.jpg</t>
+          <t>41_E_contrast1.008_gamma0.685_equalization18.898.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8697835317280034</v>
+        <v>23.84128537283368</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.3115719849816577</v>
+        <v>1.036376493887538</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>13.83931886937395</v>
+        <v>0.9329487921326272</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_S_contrast0.87_sharpness0.312_equalization13.839.jpg</t>
+          <t>42_I_brightness23.841_contrast1.036_gamma0.933.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.04079305248361</v>
+        <v>0.9403071191133002</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8433519883195688</v>
+        <v>0.9281959316005239</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>22.05631259709099</v>
+        <v>21.26486458292627</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_9_contrast1.041_sharpness0.843_equalization22.056.jpg</t>
+          <t>43_0_contrast0.94_sharpness0.928_equalization21.265.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9909180322035732</v>
+        <v>21.84367564810122</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.092642648760146</v>
+        <v>1.033138571273877</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>30.27828988703869</v>
+        <v>0.4739284786835686</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_S_contrast0.991_gamma1.093_equalization30.278.jpg</t>
+          <t>44_P_brightness21.844_contrast1.033_sharpness0.474.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,16 +2334,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>28.46564835470597</v>
+        <v>1.005682277107804</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8241798092875936</v>
+        <v>0.9495443899061091</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.4111432484518869</v>
+        <v>0.697035280363334</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_T_brightness28.466_gamma0.824_sharpness0.411.jpg</t>
+          <t>45_P_contrast1.006_gamma0.95_sharpness0.697.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,24 +2376,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8328154093453815</v>
+        <v>1.132368756126966</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.4838506389754798</v>
+        <v>0.6400440103354437</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>16.84828771442076</v>
+        <v>14.38595693488748</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_T_gamma0.833_sharpness0.484_equalization16.848.jpg</t>
+          <t>46_B_contrast1.132_gamma0.64_equalization14.386.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9593822211318059</v>
+        <v>3.518717574301386</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5511267961128735</v>
+        <v>0.6129268307701417</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.2278944109680346</v>
+        <v>0.9780971757329129</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_P_contrast0.959_gamma0.551_sharpness0.228.jpg</t>
+          <t>47_E_brightness3.519_gamma0.613_sharpness0.978.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,24 +2460,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.6281116562373161</v>
+        <v>0.8079150464645334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.1558253764442636</v>
+        <v>0.6956633322914925</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>27.65896175950888</v>
+        <v>8.714735810124314</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_2_gamma0.628_sharpness0.156_equalization27.659.jpg</t>
+          <t>48_9_contrast0.808_gamma0.696_equalization8.715.jpg</t>
         </is>
       </c>
     </row>
